--- a/Aulas/Soft Skills/Histórico de vida.xlsx
+++ b/Aulas/Soft Skills/Histórico de vida.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>-</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Momentos positivos</t>
+  </si>
+  <si>
+    <t>Show do Nightwish</t>
   </si>
   <si>
     <t>Começar a fazer travessias com mais intensidade</t>
@@ -45,7 +48,14 @@
 Todos os bons momentos na Montanha</t>
   </si>
   <si>
+    <t>Years to come: 
+Dividir a viagem com uma companheira</t>
+  </si>
+  <si>
     <t>Momentos negativos</t>
+  </si>
+  <si>
+    <t>Quase perder um pedaço do dedo</t>
   </si>
   <si>
     <t>Sofrência do primeiro amor de adolescente
@@ -56,7 +66,18 @@
 Termino da relação com a Barbara</t>
   </si>
   <si>
+    <t>Years to come:
+Passar perrengues na viagem</t>
+  </si>
+  <si>
     <t>Escolhas significativas</t>
+  </si>
+  <si>
+    <t>Pedir para fazer aula de teclado</t>
+  </si>
+  <si>
+    <t>Voltar a estudar música
+Começar a jogar muito computador</t>
   </si>
   <si>
     <t xml:space="preserve">Começar a trabalhar e sair de casa
@@ -66,6 +87,11 @@
     <t xml:space="preserve">Sair da faculdade e mudar de direção de vida em busca de sonhos antigos que me negligenciei por algum tempo
 Vir morar na montanha
 Iniciar a construção da KombiHome
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Years to come: 
+Iniciar minha viagem pelo Brasil
 </t>
   </si>
 </sst>
@@ -74,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,17 +122,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,16 +138,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,6 +160,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -149,31 +198,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,39 +242,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,187 +267,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,11 +494,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +541,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -517,162 +558,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,7 +1072,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1076,37 +1102,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="87" customHeight="1" spans="1:5">
+    <row r="2" ht="113" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="87" customHeight="1" spans="1:5">
+    <row r="3" ht="114" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" ht="87" customHeight="1" spans="1:5">
+    <row r="4" ht="87" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
